--- a/Biblioteca de Soporte/1. ELICITACIÓN/1.4 Historias de Usuario/HU_V.0.0.3.xlsx
+++ b/Biblioteca de Soporte/1. ELICITACIÓN/1.4 Historias de Usuario/HU_V.0.0.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\ESPE\6to 7mo\Analisis y diseño\27837_G5_ADS\PREGAME\1. Elicitación\1.3. Historias de Usuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\ESPE\6to 7mo\Analisis y diseño\27837_G5_ADS\Biblioteca de Soporte\1. ELICITACIÓN\1.4 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41758C73-1FE1-4D83-AA6C-9F7D74EC7F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B70E0BE-F32C-4CA9-B467-003E27238D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formato descripción HU'!$B$5:$O$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formato descripción HU'!$B$5:$O$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -224,45 +224,7 @@
     <t>RF4</t>
   </si>
   <si>
-    <t>Falta de clasificación de donaciones en especie</t>
-  </si>
-  <si>
-    <t>Clasificar tipo de especie: ropa, alimentos, muebles, juguetes</t>
-  </si>
-  <si>
-    <t>permite clasificar el tipo de donación en especie en: ropa, alimentos perecibles, no perecibles, muebles o juguetes</t>
-  </si>
-  <si>
-    <t>1.El actor selecciona una donación tipo especie.  2.El sistema despliega los diferentes tipos de categorías de especie entre (ropa, alimentos perecibles, no perecibles, muebles o juguete 3.l actor selecciona una opción y confirma. 4.El sistema actualiza la donación con la categoría correspondiente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Media </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t>Pruebas de caja negra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t>:
-Desde la interfaz seleccionar una donación tipo “especie”, asignar categoría (ropa, alimentos perecibles, muebles, juguetes) y comprobar en BD que la categoría quedó guardada.</t>
-    </r>
-  </si>
-  <si>
-    <t>Va ligado al registro de donación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorizar Donaciones </t>
   </si>
   <si>
     <t>RF5</t>
@@ -1219,29 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,6 +1189,14 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,13 +1205,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,10 +1565,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="E15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1963,22 +1925,22 @@
     <row r="9" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>21</v>
@@ -1996,13 +1958,13 @@
         <v>23</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2019,22 +1981,22 @@
     <row r="10" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>33</v>
@@ -2046,19 +2008,19 @@
         <v>45982</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2075,22 +2037,22 @@
     <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>42</v>
@@ -2102,19 +2064,19 @@
         <v>45982</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2131,22 +2093,22 @@
     <row r="12" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>21</v>
@@ -2164,13 +2126,13 @@
         <v>23</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2187,22 +2149,22 @@
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>33</v>
@@ -2220,13 +2182,13 @@
         <v>23</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2243,22 +2205,22 @@
     <row r="14" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>33</v>
@@ -2276,13 +2238,13 @@
         <v>23</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2296,49 +2258,49 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>48</v>
+        <v>88</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I15" s="6">
         <v>2</v>
       </c>
       <c r="J15" s="8">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>53</v>
+        <v>93</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2352,28 +2314,28 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I16" s="6">
         <v>2</v>
@@ -2382,19 +2344,19 @@
         <v>45986</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2408,50 +2370,22 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="8">
-        <v>45986</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2492,22 +2426,22 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="6"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="16"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2520,7 +2454,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -2533,7 +2467,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="16"/>
       <c r="P20" s="1"/>
@@ -2607,19 +2541,19 @@
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="8"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="16"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2632,7 +2566,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="13"/>
       <c r="C24" s="6"/>
@@ -2667,7 +2601,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="8"/>
@@ -2692,7 +2626,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="13"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="9"/>
@@ -2716,22 +2650,22 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2783,7 +2717,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="2"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2810,9 +2744,9 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2867,8 +2801,12 @@
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="K32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2896,10 +2834,10 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="K33" s="3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2928,10 +2866,10 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2959,11 +2897,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="K35" s="3"/>
       <c r="L35" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2991,10 +2927,8 @@
       <c r="H36" s="1"/>
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3038,7 +2972,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3104,9 +3038,9 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -8582,34 +8516,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="3"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="1"/>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
-      <c r="S236" s="1"/>
-      <c r="T236" s="1"/>
-      <c r="U236" s="1"/>
-      <c r="V236" s="1"/>
-      <c r="W236" s="1"/>
-      <c r="X236" s="1"/>
-      <c r="Y236" s="1"/>
-      <c r="Z236" s="1"/>
-    </row>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9373,26 +9280,15 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="B5:O17" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:O17">
-      <sortCondition ref="K5:K17"/>
+  <autoFilter ref="B5:O16" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:O16">
+      <sortCondition ref="K5:K16"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6 L9 L11:L27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -9403,8 +9299,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L19">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="L6 L9 L11:L26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L18">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9414,11 +9320,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L27" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$L$33:$L$36</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$L$32:$L$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K27" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$33:$K$35</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K26" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$32:$K$34</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -9435,7 +9341,7 @@
   <dimension ref="A2:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9462,8 +9368,8 @@
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="69" t="s">
-        <v>122</v>
+      <c r="B6" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -9532,12 +9438,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="29"/>
-      <c r="E9" s="54" t="s">
-        <v>123</v>
+      <c r="E9" s="62" t="s">
+        <v>116</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="62" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="43"/>
@@ -9553,18 +9459,18 @@
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27"/>
       <c r="C10" s="32" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="55" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
-        <v>Tesorera, Coordinadora</v>
+      <c r="E10" s="63" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,5,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="55" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
-        <v>No iniciado</v>
+      <c r="H10" s="63" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,11,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="34"/>
@@ -9608,16 +9514,16 @@
       <c r="A12" s="20"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D12" s="33"/>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="54" t="s">
-        <v>125</v>
+      <c r="H12" s="62" t="s">
+        <v>118</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="34"/>
@@ -9641,20 +9547,20 @@
     <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="32">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
-        <v>2</v>
+      <c r="C13" s="32" t="e">
+        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O22,8,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="D13" s="33"/>
-      <c r="E13" s="55" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
-        <v>Alta</v>
+      <c r="E13" s="63" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,10,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="55" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
-        <v>Dennison</v>
+      <c r="H13" s="63" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,7,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="34"/>
@@ -9706,34 +9612,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="56" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>Se necesita un mecanismo seguro de inicio de sesión.</v>
-      </c>
-      <c r="E15" s="45"/>
+      <c r="C15" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="69" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="49"/>
       <c r="F15" s="37"/>
-      <c r="G15" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="56" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Permitir el acceso controlado y seguro a las funciones del sistema</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="45"/>
+      <c r="G15" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="69" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="M15" s="60" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>1. Mostrar formulario. 2. Ingresar usuario/contraseña. 3. Validar credenciales. 4. Redirigir al panel principal.</v>
-      </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="45"/>
+      <c r="L15" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="47" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,6,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -9749,19 +9655,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="37"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="37"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="47"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -9777,19 +9683,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="37"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="49"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="37"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="49"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
@@ -9832,42 +9738,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
-      <c r="C19" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="61" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Inicio de Sesión del Sistema</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+      <c r="C19" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="56" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,14,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="20"/>
     </row>
@@ -9892,30 +9798,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="68" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>Prueba de seguridad, caja negra:
-Realizar pruebas de caja negra contra el endpoint de login como intentos con credenciales válidas, inválidas. Para comprobar tanto el flujo funcional (login correcto) como vulnerabilidades críticas (inyección, enumeración de usuarios, bloqueo por intentos).</v>
-      </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="45"/>
+      <c r="C22" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="66" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,12,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="50" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>implementar seguridad a la autenticacion de credenciales</v>
-      </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="45"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="68" t="e">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
@@ -9931,19 +9836,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="47"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="31"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
@@ -9959,19 +9864,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="49"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="49"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
@@ -11575,7 +11480,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
+            <xm:f>'Formato descripción HU'!$B$6:$B$22</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C11</xm:sqref>
         </x14:dataValidation>
